--- a/data/trans_dic/P28C_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P28C_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +521,21 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población cuyas relaciones sociales han disminuido respecto al último mes</t>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,33 +544,87 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -542,6 +634,15 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>12,27%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10,64%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>11,11%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>14,41%</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10,82%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12,18%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14,82%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>14,4%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>24,32%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>12,23%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>12,77%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
         <is>
           <t>12,66%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>17,25%</t>
         </is>
       </c>
     </row>
@@ -579,17 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>5,88; 17,27</t>
+          <t>7,29; 19,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>8,91; 21,99</t>
+          <t>5,93; 17,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,57; 17,49</t>
+          <t>6,03; 17,97</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>5,52; 18,49</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>7,64; 18,06</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9,32; 21,05</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>8,29; 22,76</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 32,77</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>8,38; 16,27</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>8,86; 17,48</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>8,8; 17,97</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>12,95; 23,65</t>
         </is>
       </c>
     </row>
@@ -606,17 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>10,41%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6,88%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>9,35%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>20,36%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>14,73%</t>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>8,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>16,23%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11,16%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20,35%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12,64%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8,87%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14,72%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10,63%</t>
         </is>
       </c>
     </row>
@@ -629,17 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 16,07</t>
+          <t>5,96; 19,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>14,51; 28,52</t>
+          <t>3,55; 12,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,77; 19,75</t>
+          <t>4,9; 15,99</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>4,21; 15,12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>11,83; 21,99</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>6,95; 18,22</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>14,45; 27,63</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>8,59; 19,24</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9,69; 18,49</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>5,86; 13,16</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,84; 19,61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>7,45; 15,06</t>
         </is>
       </c>
     </row>
@@ -656,17 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>8,22%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>13,5%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>21,95%</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>17,49%</t>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>6,61%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>13,01%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>21,96%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>10,71%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>14,13%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7,5%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>17,5%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>8,54%</t>
         </is>
       </c>
     </row>
@@ -679,17 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,25; 18,97</t>
+          <t>10,97; 22,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,4; 27,39</t>
+          <t>4,75; 15,46</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>14,28; 21,24</t>
+          <t>9,33; 18,61</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3,01; 12,59</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>9,83; 16,46</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>4,08; 9,7</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16,76; 27,29</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>7,13; 15,55</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>11,51; 17,71</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>5,26; 11,29</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>14,19; 21,39</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>5,9; 12,44</t>
         </is>
       </c>
     </row>
@@ -706,17 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>10,66%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8,13%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>10,09%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>8,61%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>12,92%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>17,0%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>7,85%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>8,68%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
         <is>
           <t>13,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>8,24%</t>
         </is>
       </c>
     </row>
@@ -729,17 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,53; 14,87</t>
+          <t>7,42; 14,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,73; 22,41</t>
+          <t>4,11; 18,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>10,66; 16,92</t>
+          <t>6,42; 15,41</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5,39; 13,17</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>9,57; 16,52</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>6,07; 13,25</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 22,55</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>4,68; 11,84</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>9,34; 14,43</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>6,32; 13,71</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>10,43; 16,94</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>5,83; 10,94</t>
         </is>
       </c>
     </row>
@@ -756,17 +1217,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>8,76%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>14,28%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>9,32%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10,08%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>14,88%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>12,81%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9,44%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>3,19%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
         <is>
           <t>14,59%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11,1%</t>
         </is>
       </c>
     </row>
@@ -779,17 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9,64; 20,8</t>
+          <t>5,82; 12,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10,75; 20,99</t>
+          <t>1,33; 9,8</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,21; 18,63</t>
+          <t>9,43; 20,12</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>5,92; 14,52</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>6,71; 14,2</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,94; 6,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>10,24; 19,88</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 18,03</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>7,11; 12,15</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1,57; 6,16</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>11,26; 18,34</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>8,06; 14,53</t>
         </is>
       </c>
     </row>
@@ -806,17 +1357,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>10,2%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>10,82%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3,37%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,53%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>10,84%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>9,49%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>9,96%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>5,1%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>8,75%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>6,92%</t>
         </is>
       </c>
     </row>
@@ -829,17 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>2,62; 11,89</t>
+          <t>6,24; 15,2</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>6,14; 19,24</t>
+          <t>1,2; 7,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,64; 13,77</t>
+          <t>2,6; 10,93</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1,49; 6,76</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 14,14</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>3,22; 12,4</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6,01; 19,9</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>5,56; 16,13</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>7,21; 13,01</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>2,78; 8,71</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>5,27; 13,2</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 10,51</t>
         </is>
       </c>
     </row>
@@ -856,17 +1497,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,43%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>6,85%</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>10,76%</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7,84%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>8,27%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
           <t>16,46%</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>12,31%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>11,88%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>7,58%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
         <is>
           <t>13,62%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>10,09%</t>
         </is>
       </c>
     </row>
@@ -879,31 +1565,1712 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>8,81; 13,05</t>
+          <t>9,52; 13,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>14,33; 19,08</t>
+          <t>5,25; 9,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,17; 15,41</t>
+          <t>8,72; 12,94</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6,29; 9,95</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10,8; 14,1</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>6,76; 10,21</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>14,42; 18,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>10,36; 14,4</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>10,73; 13,33</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6,39; 9,05</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>12,09; 15,28</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>8,78; 11,53</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyas relaciones sociales han disminuido respecto al último mes (tasa de respuesta: 99,79%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>62614</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>48974</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>4673</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>62622</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>70730</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>5387</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>9377</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>125236</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>119704</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10059</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>13972</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>37170; 101517</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>27295; 82714</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>2536; 7560</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2346; 7850</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>39283; 92840</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>44462; 100475</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>3100; 8510</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>6641; 12634</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>85785; 166622</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>83099; 163836</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>6996; 14281</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>10492; 19159</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>61629</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>39872</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>4625</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>4237</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>83991</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>56386</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9607</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>5816</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>145621</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>96258</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>14232</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10053</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>35286; 113903</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>20610; 74664</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>2425; 7909</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>2044; 7342</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>61209; 113762</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>35090; 92051</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>6819; 13040</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>3954; 8850</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>107547; 205093</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>63568; 142772</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>10481; 18956</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7041; 14239</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>82.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>103358</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>55830</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>8129</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4016</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>92638</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48896</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>11838</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>5830</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>195996</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>104726</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>19967</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9846</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>74058; 151192</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>32231; 104949</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5621; 11204</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1831; 7651</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>69995; 117220</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>29287; 69564</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>9038; 14715</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>3882; 8467</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>159744; 245660</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>73425; 157611</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>16194; 24411</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6796; 14335</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>18.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>67513</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>53262</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>5841</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>4872</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>85231</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>61100</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>8846</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4164</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>152744</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>114362</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>14687</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>9035</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>46985; 89925</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>26942; 119268</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>3717; 8919</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>3051; 7451</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>63175; 109005</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>40154; 87625</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>6731; 11735</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2480; 6281</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>120729; 186585</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>83240; 180598</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>11466; 18618</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>6391; 11994</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>43251</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>18800</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>6351</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>4184</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>51751</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13488</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>7222</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>5968</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>95001</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>32288</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>13573</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>10151</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>28735; 61350</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6570; 48520</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>4194; 8951</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2656; 6515</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>34417; 72858</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>4847; 32824</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4967; 9647</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>4089; 8399</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>71540; 122278</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>15884; 62322</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>10469; 17054</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7370; 13289</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53519</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>18114</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>2780</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>1539</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>65773</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>47047</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>6841</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>5971</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>119292</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>65161</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>9620</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>7510</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>32738; 79759</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>6680; 43792</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1218; 5120</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>678; 3087</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>45951; 95210</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>23214; 89295</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>3792; 12566</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>3499; 10150</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>86377; 155841</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>35450; 111188</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>5800; 14515</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>4507; 11409</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>104.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>186.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>358.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>289.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>391884</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>234852</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>32398</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>23441</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>442006</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>297646</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>49741</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>37126</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>833890</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>532499</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>82139</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>60567</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>326332; 473199</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>179755; 315117</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>26242; 38954</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>18798; 29744</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>387881; 506068</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>243319; 367305</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>43578; 57357</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>31241; 43420</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>752788; 935651</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>449148; 635405</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>72945; 92142</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>52749; 69227</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>